--- a/Calculator/BreedingCalculatorResult.xlsx
+++ b/Calculator/BreedingCalculatorResult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>ETH Price</t>
   </si>
@@ -27,6 +27,12 @@
     <t>0.125</t>
   </si>
   <si>
+    <t>Processing Fee Rate</t>
+  </si>
+  <si>
+    <t>0.0425</t>
+  </si>
+  <si>
     <t>Parent 1 purchase price</t>
   </si>
   <si>
@@ -105,7 +111,7 @@
     <t>0.02</t>
   </si>
   <si>
-    <t>42.60</t>
+    <t>43.00</t>
   </si>
   <si>
     <t>Parent 2</t>
@@ -123,7 +129,7 @@
     <t>TOTAL COST</t>
   </si>
   <si>
-    <t>197.70</t>
+    <t>198.51</t>
   </si>
   <si>
     <t>Profit Calculation</t>
@@ -147,28 +153,28 @@
     <t>0.19</t>
   </si>
   <si>
-    <t>346.56</t>
-  </si>
-  <si>
-    <t>148.86</t>
-  </si>
-  <si>
-    <t>0.75</t>
+    <t>345.66</t>
+  </si>
+  <si>
+    <t>147.15</t>
+  </si>
+  <si>
+    <t>0.74</t>
   </si>
   <si>
     <t>Max Profit</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>623.81</t>
-  </si>
-  <si>
-    <t>426.11</t>
-  </si>
-  <si>
-    <t>2.16</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>622.18</t>
+  </si>
+  <si>
+    <t>423.68</t>
+  </si>
+  <si>
+    <t>2.13</t>
   </si>
   <si>
     <t>Min Profit</t>
@@ -177,49 +183,49 @@
     <t>0.17</t>
   </si>
   <si>
-    <t>311.90</t>
-  </si>
-  <si>
-    <t>114.21</t>
-  </si>
-  <si>
-    <t>0.58</t>
+    <t>311.09</t>
+  </si>
+  <si>
+    <t>112.58</t>
+  </si>
+  <si>
+    <t>0.57</t>
   </si>
   <si>
     <t>1205.00</t>
   </si>
   <si>
-    <t>28.44</t>
-  </si>
-  <si>
-    <t>169.38</t>
-  </si>
-  <si>
-    <t>231.36</t>
-  </si>
-  <si>
-    <t>61.98</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>416.45</t>
-  </si>
-  <si>
-    <t>247.07</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>208.22</t>
-  </si>
-  <si>
-    <t>38.85</t>
-  </si>
-  <si>
-    <t>0.23</t>
+    <t>28.71</t>
+  </si>
+  <si>
+    <t>169.92</t>
+  </si>
+  <si>
+    <t>230.76</t>
+  </si>
+  <si>
+    <t>60.84</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>415.36</t>
+  </si>
+  <si>
+    <t>245.45</t>
+  </si>
+  <si>
+    <t>1.44</t>
+  </si>
+  <si>
+    <t>207.68</t>
+  </si>
+  <si>
+    <t>37.76</t>
+  </si>
+  <si>
+    <t>0.22</t>
   </si>
 </sst>
 </file>
@@ -264,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -293,61 +299,61 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -364,187 +370,195 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11"/>
-    <row r="12">
-      <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18"/>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19"/>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C24" t="s">
         <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
@@ -583,61 +597,61 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-    </row>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -654,187 +668,195 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11"/>
-    <row r="12">
-      <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18"/>
-    <row r="19">
-      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19"/>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
